--- a/ExcelToXML_DB_Converter/Excel/2024/Bring_SV_Capitalização_2024.12_Final.xlsx
+++ b/ExcelToXML_DB_Converter/Excel/2024/Bring_SV_Capitalização_2024.12_Final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernandojesus/Desktop/TaniaAlmeida-FichRH/AON/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago\Documents\BringGlobal\ExcelToXML_DB_Converter\Excel\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2983F6B-859A-574A-9FF2-F60ECE04E744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42C501C-CF67-488E-82C8-308BFA1E6DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3280" yWindow="-20260" windowWidth="35120" windowHeight="18280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SV_Capitalização" sheetId="1" r:id="rId1"/>
@@ -40,10 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
-  <si>
-    <t>Empresa</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="74">
   <si>
     <t>Mês Processamento</t>
   </si>
@@ -54,9 +51,6 @@
     <t>Numero Fiscal</t>
   </si>
   <si>
-    <t>Nome do aderente</t>
-  </si>
-  <si>
     <t>nºid</t>
   </si>
   <si>
@@ -81,9 +75,6 @@
     <t>Prémio (Único/Reforço)</t>
   </si>
   <si>
-    <t>Custo Apólice</t>
-  </si>
-  <si>
     <t>Comissão de subscrição</t>
   </si>
   <si>
@@ -259,6 +250,18 @@
   </si>
   <si>
     <t>Nome 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empresa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRING DATA SOLUTIONS, LDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nome do aderente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custo Apólice </t>
   </si>
 </sst>
 </file>
@@ -266,8 +269,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -376,7 +379,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
@@ -399,7 +402,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -413,15 +416,15 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
+    <cellStyle name="Percentagem" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -437,7 +440,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -739,39 +742,39 @@
       <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="27.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" style="3" customWidth="1"/>
     <col min="8" max="8" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" style="4" customWidth="1"/>
-    <col min="10" max="11" width="14.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.5" style="3" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="20.5" style="4" customWidth="1"/>
-    <col min="16" max="16" width="20.5" style="3" customWidth="1"/>
-    <col min="17" max="17" width="17.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="51.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="26.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" style="4" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="51.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="35" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.6640625" style="3"/>
+    <col min="26" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="M2" s="9">
         <f>+SUBTOTAL(9,M4:M885)</f>
         <v>803.94</v>
@@ -789,86 +792,86 @@
         <v>818.25013199999978</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="M3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="N3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="P3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="R3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="S3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="T3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="U3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="V3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="W3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="X3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="Y3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y3" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="B4" s="15">
         <v>45627</v>
@@ -878,10 +881,10 @@
         <v>100000001</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G4" s="14" t="str">
         <f>F4&amp;"@bringglobal.com"</f>
@@ -907,12 +910,12 @@
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B5" s="15">
         <v>45627</v>
@@ -922,10 +925,10 @@
         <v>100000002</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G5" s="14" t="str">
         <f t="shared" ref="G5:G17" si="0">F5&amp;"@bringglobal.com"</f>
@@ -951,12 +954,12 @@
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B6" s="15">
         <v>45627</v>
@@ -966,10 +969,10 @@
         <v>100000003</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G6" s="14" t="str">
         <f t="shared" si="0"/>
@@ -995,12 +998,12 @@
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B7" s="15">
         <v>45627</v>
@@ -1010,10 +1013,10 @@
         <v>100000004</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G7" s="14" t="str">
         <f t="shared" si="0"/>
@@ -1039,12 +1042,12 @@
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="15">
         <v>45627</v>
@@ -1054,10 +1057,10 @@
         <v>100000005</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G8" s="14" t="str">
         <f t="shared" si="0"/>
@@ -1083,12 +1086,12 @@
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B9" s="15">
         <v>45627</v>
@@ -1098,10 +1101,10 @@
         <v>100000006</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G9" s="14" t="str">
         <f t="shared" si="0"/>
@@ -1127,12 +1130,12 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B10" s="15">
         <v>45627</v>
@@ -1142,10 +1145,10 @@
         <v>100000007</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G10" s="14" t="str">
         <f t="shared" si="0"/>
@@ -1171,12 +1174,12 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B11" s="15">
         <v>45627</v>
@@ -1186,10 +1189,10 @@
         <v>100000008</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G11" s="14" t="str">
         <f t="shared" si="0"/>
@@ -1215,12 +1218,12 @@
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B12" s="15">
         <v>45627</v>
@@ -1230,10 +1233,10 @@
         <v>100000009</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G12" s="14" t="str">
         <f t="shared" si="0"/>
@@ -1259,12 +1262,12 @@
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B13" s="15">
         <v>45627</v>
@@ -1274,10 +1277,10 @@
         <v>100000010</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G13" s="14" t="str">
         <f t="shared" si="0"/>
@@ -1303,12 +1306,12 @@
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B14" s="15">
         <v>45627</v>
@@ -1318,10 +1321,10 @@
         <v>100000011</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G14" s="14" t="str">
         <f t="shared" si="0"/>
@@ -1347,12 +1350,12 @@
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B15" s="15">
         <v>45627</v>
@@ -1362,10 +1365,10 @@
         <v>100000012</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G15" s="14" t="str">
         <f t="shared" si="0"/>
@@ -1391,12 +1394,12 @@
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B16" s="15">
         <v>45627</v>
@@ -1406,10 +1409,10 @@
         <v>100000013</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G16" s="14" t="str">
         <f t="shared" si="0"/>
@@ -1435,12 +1438,12 @@
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" s="15">
         <v>45627</v>
@@ -1450,10 +1453,10 @@
         <v>100000014</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G17" s="14" t="str">
         <f t="shared" si="0"/>
@@ -1479,49 +1482,49 @@
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="O20" s="13"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="O21" s="13"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="O22" s="13"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="O23" s="13"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="O24" s="13"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="O25" s="13"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="O26" s="13"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="O27" s="13"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="O28" s="13"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="O29" s="13"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="O30" s="13"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="O31" s="13"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="O32" s="13"/>
     </row>
-    <row r="33" spans="15:15" x14ac:dyDescent="0.15">
+    <row r="33" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O33" s="13"/>
     </row>
   </sheetData>
@@ -1544,78 +1547,78 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B3" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="D3">
         <v>510933866</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D5">
         <v>514915420</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D7">
         <v>510107346</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D9">
         <v>510308457</v>
@@ -1837,9 +1840,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1850,12 +1856,9 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1878,10 +1881,9 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE03241D-74BD-47FC-B464-3E5EEEDD6127}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBDB35BC-B313-4363-958F-888C8186047F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1896,9 +1898,10 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBDB35BC-B313-4363-958F-888C8186047F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE03241D-74BD-47FC-B464-3E5EEEDD6127}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>